--- a/Design And Planning/Tutorial.xlsx
+++ b/Design And Planning/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TurtorialPlayerFailsStage" sheetId="18" r:id="rId1"/>
@@ -3826,6 +3826,262 @@
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
             <a:t>null Destroy(currStage),currStage = Instatiate(stages(#))</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flowchart: Process 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA449177-A3B8-4297-A46B-B4EEE456F078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="3133725"/>
+          <a:ext cx="1381125" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tutorial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Menu: I know you..., Choose your experience level(New to games, Play games often)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>633412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>633412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF330265-5D16-4AF0-9BA0-5ADB37614417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3181350" y="2500312"/>
+          <a:ext cx="12700" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Flowchart: Process 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DFFDE7-CFD0-4DE0-A8EB-A2291CE019F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="4400550"/>
+          <a:ext cx="1381125" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Disable Key descriptions, camera render</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> remove help layer</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4157,7 +4413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4377,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Design And Planning/Tutorial.xlsx
+++ b/Design And Planning/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TurtorialPlayerFailsStage" sheetId="18" r:id="rId1"/>
@@ -2776,16 +2776,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Method</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t> Method, https://forum.unity3d.com/threads/reflection-method-selection-with-an-editor-script.142405/</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4561,8 +4553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4633,7 +4625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
